--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd2-Cd48.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd2-Cd48.xlsx
@@ -531,22 +531,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7139163333333333</v>
+        <v>0.638706</v>
       </c>
       <c r="H2">
-        <v>2.141749</v>
+        <v>1.916118</v>
       </c>
       <c r="I2">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="J2">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06575866666666667</v>
+        <v>0.7109393333333333</v>
       </c>
       <c r="N2">
-        <v>0.197276</v>
+        <v>2.132818</v>
       </c>
       <c r="O2">
-        <v>0.0003210775944521127</v>
+        <v>0.002867418779909113</v>
       </c>
       <c r="P2">
-        <v>0.0003211933327104931</v>
+        <v>0.002875587087952277</v>
       </c>
       <c r="Q2">
-        <v>0.04694618619155556</v>
+        <v>0.454081217836</v>
       </c>
       <c r="R2">
-        <v>0.422515675724</v>
+        <v>4.086730960524</v>
       </c>
       <c r="S2">
-        <v>0.0001709962178242343</v>
+        <v>0.001601927783736865</v>
       </c>
       <c r="T2">
-        <v>0.000171057856520869</v>
+        <v>0.001606491135170618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7139163333333333</v>
+        <v>0.638706</v>
       </c>
       <c r="H3">
-        <v>2.141749</v>
+        <v>1.916118</v>
       </c>
       <c r="I3">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="J3">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>93.51811733333334</v>
+        <v>132.4704766666667</v>
       </c>
       <c r="N3">
-        <v>280.554352</v>
+        <v>397.4114300000001</v>
       </c>
       <c r="O3">
-        <v>0.4566177155519742</v>
+        <v>0.5342907823042267</v>
       </c>
       <c r="P3">
-        <v>0.4567823117120825</v>
+        <v>0.5358127963626762</v>
       </c>
       <c r="Q3">
-        <v>66.76411142684978</v>
+        <v>84.60968826986002</v>
       </c>
       <c r="R3">
-        <v>600.8770028416479</v>
+        <v>761.4871944287401</v>
       </c>
       <c r="S3">
-        <v>0.2431807877599348</v>
+        <v>0.2984897967344605</v>
       </c>
       <c r="T3">
-        <v>0.2432684466976285</v>
+        <v>0.2993400933930971</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7139163333333333</v>
+        <v>0.638706</v>
       </c>
       <c r="H4">
-        <v>2.141749</v>
+        <v>1.916118</v>
       </c>
       <c r="I4">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="J4">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2213985</v>
+        <v>2.112848</v>
       </c>
       <c r="N4">
-        <v>0.4427970000000001</v>
+        <v>4.225696</v>
       </c>
       <c r="O4">
-        <v>0.001081014889727682</v>
+        <v>0.008521711699207447</v>
       </c>
       <c r="P4">
-        <v>0.0007209363741367841</v>
+        <v>0.005697324785899025</v>
       </c>
       <c r="Q4">
-        <v>0.1580600053255</v>
+        <v>1.349488694688</v>
       </c>
       <c r="R4">
-        <v>0.9483600319530001</v>
+        <v>8.096932168127999</v>
       </c>
       <c r="S4">
-        <v>0.0005757158417439335</v>
+        <v>0.004760785843911017</v>
       </c>
       <c r="T4">
-        <v>0.0003839489126597823</v>
+        <v>0.003182898477003635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7139163333333333</v>
+        <v>0.638706</v>
       </c>
       <c r="H5">
-        <v>2.141749</v>
+        <v>1.916118</v>
       </c>
       <c r="I5">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="J5">
-        <v>0.5325697612629201</v>
+        <v>0.5586654432763536</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.0008776666667</v>
+        <v>112.642779</v>
       </c>
       <c r="N5">
-        <v>333.002633</v>
+        <v>337.928337</v>
       </c>
       <c r="O5">
-        <v>0.5419801919638461</v>
+        <v>0.4543200872166568</v>
       </c>
       <c r="P5">
-        <v>0.5421755585810702</v>
+        <v>0.4556142917634725</v>
       </c>
       <c r="Q5">
-        <v>79.24533958056855</v>
+        <v>71.945618803974</v>
       </c>
       <c r="R5">
-        <v>713.2080562251169</v>
+        <v>647.510569235766</v>
       </c>
       <c r="S5">
-        <v>0.2886422614434171</v>
+        <v>0.2538129329142452</v>
       </c>
       <c r="T5">
-        <v>0.2887463077961109</v>
+        <v>0.2545359602710822</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.626596</v>
+        <v>0.5045649999999999</v>
       </c>
       <c r="H6">
-        <v>1.879788</v>
+        <v>1.513695</v>
       </c>
       <c r="I6">
-        <v>0.4674302387370799</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="J6">
-        <v>0.4674302387370798</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.06575866666666667</v>
+        <v>0.7109393333333333</v>
       </c>
       <c r="N6">
-        <v>0.197276</v>
+        <v>2.132818</v>
       </c>
       <c r="O6">
-        <v>0.0003210775944521127</v>
+        <v>0.002867418779909113</v>
       </c>
       <c r="P6">
-        <v>0.0003211933327104931</v>
+        <v>0.002875587087952277</v>
       </c>
       <c r="Q6">
-        <v>0.04120411749866668</v>
+        <v>0.3587151047233332</v>
       </c>
       <c r="R6">
-        <v>0.370837057488</v>
+        <v>3.22843594251</v>
       </c>
       <c r="S6">
-        <v>0.0001500813766278783</v>
+        <v>0.001265490996172247</v>
       </c>
       <c r="T6">
-        <v>0.0001501354761896241</v>
+        <v>0.001269095952781659</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.626596</v>
+        <v>0.5045649999999999</v>
       </c>
       <c r="H7">
-        <v>1.879788</v>
+        <v>1.513695</v>
       </c>
       <c r="I7">
-        <v>0.4674302387370799</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="J7">
-        <v>0.4674302387370798</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>93.51811733333334</v>
+        <v>132.4704766666667</v>
       </c>
       <c r="N7">
-        <v>280.554352</v>
+        <v>397.4114300000001</v>
       </c>
       <c r="O7">
-        <v>0.4566177155519742</v>
+        <v>0.5342907823042267</v>
       </c>
       <c r="P7">
-        <v>0.4567823117120825</v>
+        <v>0.5358127963626762</v>
       </c>
       <c r="Q7">
-        <v>58.59807824859734</v>
+        <v>66.83996605931667</v>
       </c>
       <c r="R7">
-        <v>527.3827042373759</v>
+        <v>601.55969453385</v>
       </c>
       <c r="S7">
-        <v>0.2134369277920393</v>
+        <v>0.2358009855697661</v>
       </c>
       <c r="T7">
-        <v>0.2135138650144539</v>
+        <v>0.2364727029695791</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.626596</v>
+        <v>0.5045649999999999</v>
       </c>
       <c r="H8">
-        <v>1.879788</v>
+        <v>1.513695</v>
       </c>
       <c r="I8">
-        <v>0.4674302387370799</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="J8">
-        <v>0.4674302387370798</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2213985</v>
+        <v>2.112848</v>
       </c>
       <c r="N8">
-        <v>0.4427970000000001</v>
+        <v>4.225696</v>
       </c>
       <c r="O8">
-        <v>0.001081014889727682</v>
+        <v>0.008521711699207447</v>
       </c>
       <c r="P8">
-        <v>0.0007209363741367841</v>
+        <v>0.005697324785899025</v>
       </c>
       <c r="Q8">
-        <v>0.138727414506</v>
+        <v>1.06606915112</v>
       </c>
       <c r="R8">
-        <v>0.8323644870360001</v>
+        <v>6.39641490672</v>
       </c>
       <c r="S8">
-        <v>0.0005052990479837486</v>
+        <v>0.00376092585529643</v>
       </c>
       <c r="T8">
-        <v>0.0003369874614770017</v>
+        <v>0.00251442630889539</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.626596</v>
+        <v>0.5045649999999999</v>
       </c>
       <c r="H9">
-        <v>1.879788</v>
+        <v>1.513695</v>
       </c>
       <c r="I9">
-        <v>0.4674302387370799</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="J9">
-        <v>0.4674302387370798</v>
+        <v>0.4413345567236464</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.0008776666667</v>
+        <v>112.642779</v>
       </c>
       <c r="N9">
-        <v>333.002633</v>
+        <v>337.928337</v>
       </c>
       <c r="O9">
-        <v>0.5419801919638461</v>
+        <v>0.4543200872166568</v>
       </c>
       <c r="P9">
-        <v>0.5421755585810702</v>
+        <v>0.4556142917634725</v>
       </c>
       <c r="Q9">
-        <v>69.55270594242268</v>
+        <v>56.835603786135</v>
       </c>
       <c r="R9">
-        <v>625.974353481804</v>
+        <v>511.520434075215</v>
       </c>
       <c r="S9">
-        <v>0.253337930520429</v>
+        <v>0.2005071543024116</v>
       </c>
       <c r="T9">
-        <v>0.2534292507849593</v>
+        <v>0.2010783314923902</v>
       </c>
     </row>
   </sheetData>
